--- a/Software Testing/Java T2/Assignments/PB_A1/Test Case Documents/Assignment 1.xlsx
+++ b/Software Testing/Java T2/Assignments/PB_A1/Test Case Documents/Assignment 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t xml:space="preserve">Project ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">Test Cases for Sign in Page of LinkedIn</t>
   </si>
   <si>
-    <t xml:space="preserve">Serial No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Requirement  ID</t>
   </si>
   <si>
@@ -118,43 +115,61 @@
     <t xml:space="preserve">E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS1_TC1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">L1_R1_TS1_TC1_D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1_R1_TS2_TC2</t>
+    <t xml:space="preserve">L1_R1_TS1_TC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether login page is not navigated to the home page or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username prasannabhat97@gmail.com password @dAhgsdjhg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page should not navigate to home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stays on login   page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS1_TC3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1_R1_TS2_TC3</t>
   </si>
   <si>
     <t xml:space="preserve">Verify Whether Link is working or not after clicking forgot password link</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Screen Should go to Forgot Password Page</t>
   </si>
   <si>
-    <t xml:space="preserve">Forgot password page appears</t>
+    <t xml:space="preserve">Navigates to Homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
   </si>
   <si>
     <t xml:space="preserve">E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS2_TC1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">L1_R1_TS1_TC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify whether login page is not navigated to the home page or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username prasannabhat97@gmail.com password lalalall@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page should not navigate to home page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">page dosent navigate to home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS1_TC3.png</t>
+    <t xml:space="preserve">L1_R1_TS1_TC2_D1E:\Software Testing\Java T2\Assignments\PB_A1\Test Case Documents\R1_TS1_TC2_D1.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1_R1_TS1_TC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether login page navigates to home page after entering valid password and username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username prasannabhat97@gmail.com  password@Abcdefgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stays on the login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1_R1_TS1_TC2_D2E:\Software Testing\Java T2\Assignments\PB_A1\Test Case Documents\R1_TS1_TC4_D2.xltx</t>
   </si>
 </sst>
 </file>
@@ -273,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,11 +317,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:AMI12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,7 +382,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="14.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="15" style="1" width="14.47"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,167 +407,1217 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="61" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>35</v>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
+    <row r="12" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="N12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
+  <mergeCells count="5">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS1_TC1.png"/>
-    <hyperlink ref="M10" r:id="rId2" display="E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS2_TC1.png"/>
-    <hyperlink ref="M11" r:id="rId3" display="E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS1_TC3.png"/>
+    <hyperlink ref="H10" r:id="rId2" display="username prasannabhat97@gmail.com password @dAhgsdjhg"/>
+    <hyperlink ref="M10" r:id="rId3" display="E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS1_TC3.png"/>
+    <hyperlink ref="M11" r:id="rId4" display="E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS2_TC1.png"/>
+    <hyperlink ref="N11" r:id="rId5" display="L1_R1_TS1_TC2_D1E:\Software Testing\Java T2\Assignments\PB_A1\Test Case Documents\R1_TS1_TC2_D1.xlsx"/>
+    <hyperlink ref="H12" r:id="rId6" display="username prasannabhat97@gmail.com  password@Abcdefgh"/>
+    <hyperlink ref="M12" r:id="rId7" display="E:\Software Testing\Java T2\Assignments\PB_A1\Screenshot\L1_R1_TS2_TC1.png"/>
+    <hyperlink ref="N12" r:id="rId8" display="L1_R1_TS1_TC2_D2E:\Software Testing\Java T2\Assignments\PB_A1\Test Case Documents\R1_TS1_TC4_D2.xltx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
